--- a/students/catch.xlsx
+++ b/students/catch.xlsx
@@ -119,9 +119,6 @@
     <t>WAHOO</t>
   </si>
   <si>
-    <t>SARDI0</t>
-  </si>
-  <si>
     <t>ATUN</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Mar Caribe</t>
+  </si>
+  <si>
+    <t>SARDINA</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:P206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1386,7 @@
         <v>2013</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>2013</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5">
         <v>43221</v>
@@ -1486,7 +1486,7 @@
         <v>2013</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5">
         <v>100</v>
@@ -1536,7 +1536,7 @@
         <v>2013</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5">
         <v>172559</v>
@@ -1586,7 +1586,7 @@
         <v>2013</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5">
         <v>47696</v>
@@ -1636,7 +1636,7 @@
         <v>2013</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="5">
         <v>57</v>
@@ -1686,7 +1686,7 @@
         <v>2013</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5">
         <v>6205</v>
@@ -1736,7 +1736,7 @@
         <v>2013</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>2013</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>2013</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5">
         <v>6506</v>
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5">
         <v>885</v>
@@ -1936,7 +1936,7 @@
         <v>2013</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>2013</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5">
         <v>10905</v>
@@ -2036,7 +2036,7 @@
         <v>2013</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>2013</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5">
         <v>43343</v>
@@ -2136,7 +2136,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5">
         <v>270</v>
@@ -2186,7 +2186,7 @@
         <v>2013</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>2013</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>2013</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5">
         <v>67</v>
@@ -2336,7 +2336,7 @@
         <v>2013</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="5">
         <v>19</v>
@@ -2386,7 +2386,7 @@
         <v>2013</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>2013</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="5">
         <v>15654</v>
@@ -2486,7 +2486,7 @@
         <v>2013</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>2013</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>2013</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>2013</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="5">
         <v>0</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4">
         <v>2013</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4">
         <v>2013</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4">
         <v>2013</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4">
         <v>2013</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4">
         <v>2013</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4">
         <v>2013</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="4">
         <v>2013</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="4">
         <v>2013</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4">
         <v>2013</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4">
         <v>2013</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4">
         <v>2013</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4">
         <v>2013</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4">
         <v>2013</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4">
         <v>2013</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4">
         <v>2013</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4">
         <v>2013</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D58" s="5">
         <v>13218</v>
@@ -3480,13 +3480,13 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4">
         <v>2013</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="5">
         <v>8733</v>
@@ -3530,13 +3530,13 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4">
         <v>2013</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="5">
         <v>0</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="4">
         <v>2013</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="5">
         <v>157</v>
@@ -3630,13 +3630,13 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="4">
         <v>2013</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4">
         <v>2013</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="4">
         <v>2013</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4">
         <v>2013</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="5">
         <v>13964</v>
@@ -3830,13 +3830,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4">
         <v>2013</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -3880,13 +3880,13 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4">
         <v>2013</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D67" s="5">
         <v>5553</v>
@@ -3930,13 +3930,13 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="4">
         <v>2013</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" s="5">
         <v>151</v>
@@ -3980,13 +3980,13 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="4">
         <v>2013</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="5">
         <v>0</v>
@@ -4030,13 +4030,13 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" s="4">
         <v>2013</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="5">
         <v>483</v>
@@ -4080,13 +4080,13 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4">
         <v>2013</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" s="5">
         <v>3847</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="4">
         <v>2013</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72" s="5">
         <v>0</v>
@@ -4180,13 +4180,13 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="4">
         <v>2013</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73" s="5">
         <v>276</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="4">
         <v>2013</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" s="5">
         <v>0</v>
@@ -4280,13 +4280,13 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="4">
         <v>2013</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -4330,13 +4330,13 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="4">
         <v>2013</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" s="5">
         <v>0</v>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4">
         <v>2013</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
@@ -4430,13 +4430,13 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4">
         <v>2013</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="4">
         <v>2013</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="5">
         <v>0</v>
@@ -4530,13 +4530,13 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="4">
         <v>2013</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="5">
         <v>10</v>
@@ -4580,13 +4580,13 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="4">
         <v>2013</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="4">
         <v>2013</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="5">
         <v>117</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="4">
         <v>2013</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" s="4">
         <v>2013</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" s="4">
         <v>2013</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="4">
         <v>2013</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" s="4">
         <v>2013</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="4">
         <v>2013</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="4">
         <v>2013</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="4">
         <v>2013</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91" s="4">
         <v>2013</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" s="4">
         <v>2013</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B93" s="4">
         <v>2013</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B94" s="4">
         <v>2013</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" s="4">
         <v>2013</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B96" s="4">
         <v>2013</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B97" s="4">
         <v>2013</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B98" s="4">
         <v>2013</v>
@@ -5480,13 +5480,13 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B99" s="4">
         <v>2013</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D99" s="5">
         <v>0</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B100" s="4">
         <v>2013</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" s="5">
         <v>53195</v>
@@ -5580,13 +5580,13 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B101" s="4">
         <v>2013</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
@@ -5630,13 +5630,13 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" s="4">
         <v>2013</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="5">
         <v>29584</v>
@@ -5680,13 +5680,13 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103" s="4">
         <v>2013</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="5">
         <v>12971</v>
@@ -5730,13 +5730,13 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B104" s="4">
         <v>2013</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D104" s="5">
         <v>25</v>
@@ -5780,13 +5780,13 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B105" s="4">
         <v>2013</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D105" s="5">
         <v>1486</v>
@@ -5830,13 +5830,13 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B106" s="4">
         <v>2013</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B107" s="4">
         <v>2013</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107" s="5">
         <v>0</v>
@@ -5930,13 +5930,13 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B108" s="4">
         <v>2013</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D108" s="5">
         <v>9378</v>
@@ -5980,13 +5980,13 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B109" s="4">
         <v>2013</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D109" s="5">
         <v>1035</v>
@@ -6030,13 +6030,13 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B110" s="4">
         <v>2013</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" s="5">
         <v>0</v>
@@ -6080,13 +6080,13 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B111" s="4">
         <v>2013</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D111" s="5">
         <v>0</v>
@@ -6130,13 +6130,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B112" s="4">
         <v>2013</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D112" s="5">
         <v>0</v>
@@ -6180,13 +6180,13 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B113" s="4">
         <v>2013</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D113" s="5">
         <v>264827</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B114" s="4">
         <v>2013</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D114" s="5">
         <v>0</v>
@@ -6280,13 +6280,13 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B115" s="4">
         <v>2013</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -6330,13 +6330,13 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B116" s="4">
         <v>2013</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D116" s="5">
         <v>0</v>
@@ -6380,13 +6380,13 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B117" s="4">
         <v>2013</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
@@ -6430,13 +6430,13 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B118" s="4">
         <v>2013</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
@@ -6480,13 +6480,13 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B119" s="4">
         <v>2013</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D119" s="5">
         <v>0</v>
@@ -6530,13 +6530,13 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4">
         <v>2013</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D120" s="5">
         <v>1906</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4">
         <v>2013</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -6630,13 +6630,13 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122" s="4">
         <v>2013</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D122" s="5">
         <v>0</v>
@@ -6680,13 +6680,13 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123" s="4">
         <v>2013</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D123" s="5">
         <v>0</v>
@@ -6730,13 +6730,13 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B124" s="4">
         <v>2013</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D124" s="5">
         <v>0</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B125" s="4">
         <v>2013</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B126" s="4">
         <v>2013</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B127" s="4">
         <v>2013</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B128" s="4">
         <v>2013</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B129" s="4">
         <v>2013</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B130" s="4">
         <v>2013</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B131" s="4">
         <v>2013</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B132" s="4">
         <v>2013</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B133" s="4">
         <v>2013</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B134" s="4">
         <v>2013</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B135" s="4">
         <v>2013</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B136" s="4">
         <v>2013</v>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B137" s="4">
         <v>2013</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B138" s="4">
         <v>2013</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B139" s="4">
         <v>2013</v>
@@ -7530,13 +7530,13 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B140" s="4">
         <v>2013</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D140" s="5">
         <v>0</v>
@@ -7580,13 +7580,13 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B141" s="4">
         <v>2013</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="5">
         <v>31502</v>
@@ -7630,13 +7630,13 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B142" s="4">
         <v>2013</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" s="5">
         <v>1842</v>
@@ -7680,13 +7680,13 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B143" s="4">
         <v>2013</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" s="5">
         <v>3486</v>
@@ -7730,13 +7730,13 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B144" s="4">
         <v>2013</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="5">
         <v>3200</v>
@@ -7780,13 +7780,13 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B145" s="4">
         <v>2013</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D145" s="5">
         <v>0</v>
@@ -7830,13 +7830,13 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B146" s="4">
         <v>2013</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D146" s="5">
         <v>51</v>
@@ -7880,13 +7880,13 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B147" s="4">
         <v>2013</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
@@ -7930,13 +7930,13 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B148" s="4">
         <v>2013</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D148" s="5">
         <v>0</v>
@@ -7980,13 +7980,13 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" s="4">
         <v>2013</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -8030,13 +8030,13 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B150" s="4">
         <v>2013</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D150" s="5">
         <v>0</v>
@@ -8080,13 +8080,13 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B151" s="4">
         <v>2013</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D151" s="5">
         <v>0</v>
@@ -8130,13 +8130,13 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B152" s="4">
         <v>2013</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D152" s="5">
         <v>0</v>
@@ -8180,13 +8180,13 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B153" s="4">
         <v>2013</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D153" s="5">
         <v>0</v>
@@ -8230,13 +8230,13 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B154" s="4">
         <v>2013</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D154" s="5">
         <v>0</v>
@@ -8280,13 +8280,13 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B155" s="4">
         <v>2013</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B156" s="4">
         <v>2013</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D156" s="5">
         <v>0</v>
@@ -8380,13 +8380,13 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B157" s="4">
         <v>2013</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D157" s="5">
         <v>0</v>
@@ -8430,13 +8430,13 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B158" s="4">
         <v>2013</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
@@ -8480,13 +8480,13 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B159" s="4">
         <v>2013</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -8530,13 +8530,13 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B160" s="4">
         <v>2013</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D160" s="5">
         <v>0</v>
@@ -8580,13 +8580,13 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B161" s="4">
         <v>2013</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D161" s="5">
         <v>243</v>
@@ -8630,13 +8630,13 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B162" s="4">
         <v>2013</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D162" s="5">
         <v>0</v>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B163" s="4">
         <v>2013</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D163" s="5">
         <v>7</v>
@@ -8730,13 +8730,13 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B164" s="4">
         <v>2013</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D164" s="5">
         <v>0</v>
@@ -8780,13 +8780,13 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B165" s="4">
         <v>2013</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D165" s="5">
         <v>0</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B166" s="4">
         <v>2013</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B167" s="4">
         <v>2013</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B168" s="4">
         <v>2013</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B169" s="4">
         <v>2013</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B170" s="4">
         <v>2013</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B171" s="4">
         <v>2013</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B172" s="4">
         <v>2013</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B173" s="4">
         <v>2013</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B174" s="4">
         <v>2013</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B175" s="4">
         <v>2013</v>
@@ -9330,7 +9330,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B176" s="4">
         <v>2013</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B177" s="4">
         <v>2013</v>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B178" s="4">
         <v>2013</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B179" s="4">
         <v>2013</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B180" s="4">
         <v>2013</v>
@@ -9580,13 +9580,13 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2013</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B181" s="4">
-        <v>2013</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D181" s="5">
         <v>0</v>
@@ -9630,13 +9630,13 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B182" s="4">
         <v>2013</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182" s="5">
         <v>3348</v>
@@ -9680,13 +9680,13 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B183" s="4">
         <v>2013</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183" s="5">
         <v>0</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B184" s="4">
         <v>2013</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D184" s="5">
         <v>10669</v>
@@ -9780,13 +9780,13 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B185" s="4">
         <v>2013</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="5">
         <v>4437</v>
@@ -9830,13 +9830,13 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B186" s="4">
         <v>2013</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D186" s="5">
         <v>278</v>
@@ -9880,13 +9880,13 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B187" s="4">
         <v>2013</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D187" s="5">
         <v>111</v>
@@ -9930,13 +9930,13 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B188" s="4">
         <v>2013</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -9980,13 +9980,13 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B189" s="4">
         <v>2013</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D189" s="5">
         <v>0</v>
@@ -10030,13 +10030,13 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B190" s="4">
         <v>2013</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D190" s="5">
         <v>0</v>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B191" s="4">
         <v>2013</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D191" s="5">
         <v>0</v>
@@ -10130,13 +10130,13 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B192" s="4">
         <v>2013</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D192" s="5">
         <v>0</v>
@@ -10180,13 +10180,13 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B193" s="4">
         <v>2013</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D193" s="5">
         <v>0</v>
@@ -10230,13 +10230,13 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B194" s="4">
         <v>2013</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D194" s="5">
         <v>62</v>
@@ -10280,13 +10280,13 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B195" s="4">
         <v>2013</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D195" s="5">
         <v>0</v>
@@ -10330,13 +10330,13 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B196" s="4">
         <v>2013</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -10380,13 +10380,13 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B197" s="4">
         <v>2013</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D197" s="5">
         <v>1761</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B198" s="4">
         <v>2013</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D198" s="5">
         <v>0</v>
@@ -10480,13 +10480,13 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B199" s="4">
         <v>2013</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D199" s="5">
         <v>0</v>
@@ -10530,13 +10530,13 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B200" s="4">
         <v>2013</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D200" s="5">
         <v>0</v>
@@ -10580,13 +10580,13 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B201" s="4">
         <v>2013</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D201" s="5">
         <v>0</v>
@@ -10630,13 +10630,13 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B202" s="4">
         <v>2013</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D202" s="5">
         <v>1015</v>
@@ -10680,13 +10680,13 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B203" s="4">
         <v>2013</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D203" s="5">
         <v>0</v>
@@ -10730,13 +10730,13 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B204" s="4">
         <v>2013</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D204" s="5">
         <v>0</v>
@@ -10780,13 +10780,13 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B205" s="4">
         <v>2013</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D205" s="5">
         <v>11</v>
@@ -10830,13 +10830,13 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B206" s="4">
         <v>2013</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D206" s="5">
         <v>0</v>
